--- a/gee_datasets/gee-pouzite-datasety.xlsx
+++ b/gee_datasets/gee-pouzite-datasety.xlsx
@@ -88,6 +88,9 @@
     <t xml:space="preserve">WorldClim BIO Variables V1</t>
   </si>
   <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://developers.google.com/earth-engine/datasets/catalog/WORLDCLIM_V1_BIO</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t xml:space="preserve">NASA SRTM Digital Elevation 30m</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://developers.google.com/earth-engine/datasets/catalog/USGS_SRTMGL1_003</t>
   </si>
   <si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">corine</t>
   </si>
   <si>
-    <t xml:space="preserve">COPERNICUS/CORINE/V20/100m</t>
+    <t xml:space="preserve">COPERNICUS/CORINE/V20/100m/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Copernicus CORINE Land Cover</t>
@@ -323,7 +323,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,37 +412,37 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>31</v>
@@ -474,7 +474,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>39</v>

--- a/gee_datasets/gee-pouzite-datasety.xlsx
+++ b/gee_datasets/gee-pouzite-datasety.xlsx
@@ -323,19 +323,20 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="31.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>

--- a/gee_datasets/gee-pouzite-datasety.xlsx
+++ b/gee_datasets/gee-pouzite-datasety.xlsx
@@ -225,12 +225,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -283,7 +289,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,14 +329,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="A1:J5"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.77"/>
@@ -347,28 +353,28 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/gee_datasets/gee-pouzite-datasety.xlsx
+++ b/gee_datasets/gee-pouzite-datasety.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t xml:space="preserve">short</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">B1-B7,B10,B11,pixel_QA,sr_aerosol,radsat_Qa</t>
   </si>
   <si>
-    <t xml:space="preserve">možnost odvození NDVI/EVI/NDWI...</t>
+    <t xml:space="preserve">možnost odvození NDVI/EVI/NDWI…; Caution: This dataset has been superseded by LANDSAT/LC08/C02/T1_L2. - nahradit? Jaký je rozdíl/výhoda?</t>
   </si>
   <si>
     <t xml:space="preserve">worldclim</t>
@@ -173,6 +173,48 @@
       </rPr>
       <t xml:space="preserve">2018</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sentinel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPERNICUS/S2_SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinel-2 MSI: MultiSpectral Instrument, Level-2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imageCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/earth-engine/datasets/catalog/COPERNICUS_S2_SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 20, 60 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1-B12, QA60 (cloud mask), …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landsat2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDSAT/LC08/C02/T1_L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USGS Landsat 8 Level 2, Collection 2, Tier 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/earth-engine/datasets/catalog/LANDSAT_LC08_C02_T1_L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1-B7,B10,?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">možnost odvození NDVI/EVI/NDWI…</t>
   </si>
 </sst>
 </file>
@@ -280,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +349,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -322,17 +368,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.59"/>
@@ -343,7 +389,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -500,6 +546,62 @@
       </c>
       <c r="J5" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -511,6 +613,8 @@
     <hyperlink ref="I4" r:id="rId5" display="Farr, T.G., Rosen, P.A., Caro, E., Crippen, R., Duren, R., Hensley, S., Kobrick, M., Paller, M., Rodriguez, E., Roth, L., Seal, D., Shaffer, S., Shimada, J., Umland, J., Werner, M., Oskin, M., Burbank, D., and Alsdorf, D.E., 2007, The shuttle radar topography mission: Reviews of Geophysics, v. 45, no. 2, RG2004, at https://doi.org/10.1029/2005RG000183."/>
     <hyperlink ref="E5" r:id="rId6" display="https://developers.google.com/earth-engine/datasets/catalog/COPERNICUS_CORINE_V20_100m"/>
     <hyperlink ref="I5" r:id="rId7" display="Access to data is based on a principle of full, open, and free access as established by the Copernicus data and information policy Regulation (EU) No 1159/2013 of 12 July 2013. For more information visit: https://land.copernicus.eu/pan-european/corine-land-cover/clc2018?tab=metadata"/>
+    <hyperlink ref="E6" r:id="rId8" display="https://developers.google.com/earth-engine/datasets/catalog/COPERNICUS_S2_SR"/>
+    <hyperlink ref="E7" r:id="rId9" display="https://developers.google.com/earth-engine/datasets/catalog/LANDSAT_LC08_C02_T1_L2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
